--- a/Question_Set2/Programming skills/Django.xlsx
+++ b/Question_Set2/Programming skills/Django.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are working on a Django project for a company that specializes in real estate. You need to choose a field type for the company’s model for storing property information that allows users to enter a price in US dollars. However, the company also operates in other countries and wants to support other currencies. Which of the following is the best approach for choosing this field?', 'ques_type': 2, 'options': ['Create a field that stores the price as a DecimalField and the currency code as a CharField.', 'Create a DecimalField and allow users to enter the currency code as a separate field.', "Use Django's built-in MoneyField and add support for additional currencies.", "Employ Django's built-in CurrencyField and add support for US dollars."], 'score': 'Create a field that stores the price as a DecimalField and the currency code as a CharField.'}, {'title': "You have been hired as a Django website developer for an up-and-coming social media app company. You are working on the Django view responsible for displaying a list of posts from the social media app. You want to write a test to verify that the view uses the correct template. You’ve started with the code shown below. Which line of code correctly completes the snippet to set up tests for this? from django.test import TestCase\nfrom django.urls import reverse\nclass PostsTestCase(TestCase):\n   def test_post_template(self):\n       url = reverse('posts')\n       response = self.client.get(url)", 'ques_type': 2, 'options': ["self.assertEqual(response.template, 'core/posts.html')", "self.assertTemplateUsed(response.template, 'core/posts.html')", "self.assertTemplateUsed(response, 'core/posts.html')", "self.assertEqual(response, 'core/posts.html')"], 'score': "self.assertTemplateUsed(response, 'core/posts.html')"}, {'title': "You are the lead developer creating a business website in Django. The website must have a “Contact Us” page that allows customers to ask questions and reach customer service. This page should show text fields for name, email, subject, and message. You already have a Contact model with name, email, subject, and message as fields.What is the best approach to define and create a form using Django's form classes with the Contact model?", 'ques_type': 2, 'options': ['Define the form as a subclass of forms.Form and use forms.CharField for all the fields.', 'Define the form as a subclass of forms.ModelForm and use forms.CharField for all the fields.', 'Define the form as a subclass of forms.Form and use forms.EmailField for the email field and forms.CharField for the other fields.', 'Define the form as a subclass of forms.ModelForm with name, email, subject, and message in the fields array.'], 'score': 'Define the form as a subclass of forms.ModelForm with name, email, subject, and message in the fields array.'}, {'title': 'You are the lead developer building a Django blogging application. The application should allow guests to post articles on the site. The site’s instructions indicate that guest authors should capitalize every word in their blog post titles. However, some authors aren’t following instructions and post titles with lowercase words. You need to change all these titles so every word is capitalized. How should you accomplish this most efficiently?', 'ques_type': 2, 'options': ['Impersonate the guest authors and change the titles in the database manually.', 'Email the guest authors and instruct them to capitalize their blog post titles.', 'Use the ```capitalize``` HTML template filter, e.g., {{ value | capitalize }}', 'Apply the ```title``` HTML template filter, e.g., {{ value | title }}'], 'score': 'Apply the ```title``` HTML template filter, e.g., {{ value | title }}'}]</t>
+    <t>questions = [
+    {
+        "title": "You are working on a Django project for a company that specializes in real estate. You need to choose a field type for the company\u2019s model for storing property information that allows users to enter a price in US dollars. However, the company also operates in other countries and wants to support other currencies. Which of the following is the best approach for choosing this field?",
+        "ques_type": 2,
+        "options": [
+            "Create a field that stores the price as a DecimalField and the currency code as a CharField.",
+            "Create a DecimalField and allow users to enter the currency code as a separate field.",
+            "Use Django's built-in MoneyField and add support for additional currencies.",
+            "Employ Django's built-in CurrencyField and add support for US dollars."
+        ],
+        "score": "Create a field that stores the price as a DecimalField and the currency code as a CharField."
+    },
+    {
+        "title": "You have been hired as a Django website developer for an up-and-coming social media app company. You are working on the Django view responsible for displaying a list of posts from the social media app. You want to write a test to verify that the view uses the correct template. You\u2019ve started with the code shown below. Which line of code correctly completes the snippet to set up tests for this? from django.test import TestCase\nfrom django.urls import reverse\nclass PostsTestCase(TestCase):\n   def test_post_template(self):\n       url = reverse('posts')\n       response = self.client.get(url)",
+        "ques_type": 2,
+        "options": [
+            "self.assertEqual(response.template, 'core/posts.html')",
+            "self.assertTemplateUsed(response.template, 'core/posts.html')",
+            "self.assertTemplateUsed(response, 'core/posts.html')",
+            "self.assertEqual(response, 'core/posts.html')"
+        ],
+        "score": "self.assertTemplateUsed(response, 'core/posts.html')"
+    },
+    {
+        "title": "You are the lead developer creating a business website in Django. The website must have a \u201cContact Us\u201d page that allows customers to ask questions and reach customer service. This page should show text fields for name, email, subject, and message. You already have a Contact model with name, email, subject, and message as fields.What is the best approach to define and create a form using Django's form classes with the Contact model?",
+        "ques_type": 2,
+        "options": [
+            "Define the form as a subclass of forms.Form and use forms.CharField for all the fields.",
+            "Define the form as a subclass of forms.ModelForm and use forms.CharField for all the fields.",
+            "Define the form as a subclass of forms.Form and use forms.EmailField for the email field and forms.CharField for the other fields.",
+            "Define the form as a subclass of forms.ModelForm with name, email, subject, and message in the fields array."
+        ],
+        "score": "Define the form as a subclass of forms.ModelForm with name, email, subject, and message in the fields array."
+    },
+    {
+        "title": "You are the lead developer building a Django blogging application. The application should allow guests to post articles on the site. The site\u2019s instructions indicate that guest authors should capitalize every word in their blog post titles. However, some authors aren\u2019t following instructions and post titles with lowercase words. You need to change all these titles so every word is capitalized. How should you accomplish this most efficiently?",
+        "ques_type": 2,
+        "options": [
+            "Impersonate the guest authors and change the titles in the database manually.",
+            "Email the guest authors and instruct them to capitalize their blog post titles.",
+            "Use the ```capitalize``` HTML template filter, e.g., {{ value | capitalize }}",
+            "Apply the ```title``` HTML template filter, e.g., {{ value | title }}"
+        ],
+        "score": "Apply the ```title``` HTML template filter, e.g., {{ value | title }}"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
